--- a/taules.xlsx
+++ b/taules.xlsx
@@ -190,7 +190,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -220,9 +220,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1479,7 +1476,9 @@
       <c r="E4" s="12">
         <v>73.13</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="12">
+        <v>73.22</v>
+      </c>
       <c r="G4" s="12">
         <v>73.09999999999999</v>
       </c>
@@ -1488,11 +1487,21 @@
       <c r="A5" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="12">
+        <v>79.34999999999999</v>
+      </c>
+      <c r="C5" s="12">
+        <v>76.98999999999999</v>
+      </c>
+      <c r="D5" s="12">
+        <v>76.76000000000001</v>
+      </c>
+      <c r="E5" s="12">
+        <v>76.86</v>
+      </c>
+      <c r="F5" s="12">
+        <v>76.91</v>
+      </c>
       <c r="G5" s="12">
         <v>76.78</v>
       </c>
@@ -1501,11 +1510,21 @@
       <c r="A6" t="s" s="11">
         <v>11</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="B6" s="12">
+        <v>68.48999999999999</v>
+      </c>
+      <c r="C6" s="12">
+        <v>67.69</v>
+      </c>
+      <c r="D6" s="12">
+        <v>66.59</v>
+      </c>
+      <c r="E6" s="12">
+        <v>66.18000000000001</v>
+      </c>
+      <c r="F6" s="12">
+        <v>66.18000000000001</v>
+      </c>
       <c r="G6" s="12">
         <v>66.91</v>
       </c>
@@ -1558,14 +1577,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="14" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="14" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="14" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="14" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="14" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="14" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="14" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="14" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="13" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="13" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="13" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="13" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="13" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1">
@@ -1639,7 +1658,9 @@
       <c r="E4" s="12">
         <v>190.58</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="12">
+        <v>211.76</v>
+      </c>
       <c r="G4" s="12">
         <v>218.45</v>
       </c>
@@ -1648,11 +1669,21 @@
       <c r="A5" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="12">
+        <v>212.83</v>
+      </c>
+      <c r="C5" s="12">
+        <v>212.31</v>
+      </c>
+      <c r="D5" s="12">
+        <v>212.1</v>
+      </c>
+      <c r="E5" s="12">
+        <v>212.23</v>
+      </c>
+      <c r="F5" s="12">
+        <v>213.5</v>
+      </c>
       <c r="G5" s="12">
         <v>222.64</v>
       </c>
@@ -1661,11 +1692,21 @@
       <c r="A6" t="s" s="11">
         <v>11</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="B6" s="12">
+        <v>215.4</v>
+      </c>
+      <c r="C6" s="12">
+        <v>216.46</v>
+      </c>
+      <c r="D6" s="12">
+        <v>215.04</v>
+      </c>
+      <c r="E6" s="12">
+        <v>215.01</v>
+      </c>
+      <c r="F6" s="12">
+        <v>215.63</v>
+      </c>
       <c r="G6" s="12">
         <v>226.56</v>
       </c>
@@ -1718,14 +1759,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="15" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="15" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="15" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="15" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="15" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="15" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="15" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="14" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="14" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="14" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="14" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="14" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="14" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="14" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1">
@@ -1799,7 +1840,9 @@
       <c r="E4" s="12">
         <v>27.01</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="12">
+        <v>29.2</v>
+      </c>
       <c r="G4" s="12">
         <v>28.88</v>
       </c>
@@ -1808,11 +1851,21 @@
       <c r="A5" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="12">
+        <v>27.09</v>
+      </c>
+      <c r="C5" s="12">
+        <v>27.89</v>
+      </c>
+      <c r="D5" s="12">
+        <v>28.23</v>
+      </c>
+      <c r="E5" s="12">
+        <v>28.15</v>
+      </c>
+      <c r="F5" s="12">
+        <v>28.41</v>
+      </c>
       <c r="G5" s="12">
         <v>29.88</v>
       </c>
@@ -1821,11 +1874,21 @@
       <c r="A6" t="s" s="11">
         <v>11</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="B6" s="12">
+        <v>28.1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>29.48</v>
+      </c>
+      <c r="D6" s="12">
+        <v>29.4</v>
+      </c>
+      <c r="E6" s="12">
+        <v>29.8</v>
+      </c>
+      <c r="F6" s="12">
+        <v>29.83</v>
+      </c>
       <c r="G6" s="12">
         <v>31.8</v>
       </c>

--- a/taules.xlsx
+++ b/taules.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria\Documents\UNIVERSITAT\4A\CCAV\PROJ1\CCAV_1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B0DB55DC-41A9-4549-9B11-0D43BE016C24}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Resumen de exportación" sheetId="1" r:id="rId4"/>
-    <sheet name="Hoja 1 - Compresion Table" sheetId="2" r:id="rId5"/>
-    <sheet name="Hoja 1 - Compresion Time in Sec" sheetId="3" r:id="rId6"/>
-    <sheet name="Hoja 1 - Decompresion Time in S" sheetId="4" r:id="rId7"/>
+    <sheet name="Resumen de exportación" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja 1 - Compresion Table" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Hoja 1 - Compresion Time in Sec" sheetId="3" r:id="rId5"/>
+    <sheet name="Hoja 1 - Decompresion Time in S" sheetId="4" r:id="rId6"/>
   </sheets>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>Este documento se ha exportado de Numbers. Cada tabla se ha convertido en una hoja de cálculo de Excel. Los demás objetos de las hojas de Numbers se han colocado en distintas hojas de cálculo. Recuerda que el cálculo de fórmulas puede ser diferente en Excel.</t>
   </si>
@@ -67,14 +77,29 @@
   <si>
     <t>Hoja 1 - Decompresion Time in S</t>
   </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Punk</t>
+  </si>
+  <si>
+    <t>Soul</t>
+  </si>
+  <si>
+    <t>Pop</t>
+  </si>
+  <si>
+    <t>Reggae</t>
+  </si>
+  <si>
+    <t>Classical</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="10"/>
@@ -92,7 +117,7 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="11"/>
       <name val="Helvetica Neue"/>
@@ -186,47 +211,50 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -236,28 +264,1461 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="015e88b1"/>
-      <rgbColor rgb="01eef3f4"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="fffefefe"/>
-      <rgbColor rgb="ffecab5a"/>
-      <rgbColor rgb="ffffc783"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="015E88B1"/>
+      <rgbColor rgb="01EEF3F4"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFEFEFE"/>
+      <rgbColor rgb="FFECAB5A"/>
+      <rgbColor rgb="FFFFC783"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Classical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>52.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-48A4-4328-8D5E-99C4E85682E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>77.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-48A4-4328-8D5E-99C4E85682E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Punk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>79.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-48A4-4328-8D5E-99C4E85682E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soul</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>68.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.180000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-48A4-4328-8D5E-99C4E85682E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reggae</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$4:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>65.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-48A4-4328-8D5E-99C4E85682E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="556382824"/>
+        <c:axId val="556382168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="556382824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Predictor</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Order</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ca-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ca-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556382168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="556382168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ca-ES"/>
+                  <a:t>Compression Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ca-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ca-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556382824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ca-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ca-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0482D55-B2E7-4F9B-9235-A84044E57D12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -456,7 +1917,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -475,7 +1936,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -505,7 +1966,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -531,7 +1992,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -557,7 +2018,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -583,7 +2044,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -609,7 +2070,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -635,7 +2096,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -661,7 +2122,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -687,7 +2148,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -713,7 +2174,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -726,9 +2187,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -745,7 +2212,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -764,7 +2231,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -790,7 +2257,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -816,7 +2283,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -842,7 +2309,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -868,7 +2335,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -894,7 +2361,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -920,7 +2387,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -946,7 +2413,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -972,7 +2439,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -998,7 +2465,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1011,9 +2478,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1027,7 +2500,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1046,7 +2519,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1076,7 +2549,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1102,7 +2575,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1128,7 +2601,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1154,7 +2627,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1180,7 +2653,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1206,7 +2679,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1232,7 +2705,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1258,7 +2731,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1284,7 +2757,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1297,76 +2770,84 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="33.6016" customWidth="1"/>
+    <col min="2" max="4" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
+    <row r="3" spans="2:4" ht="50.1" customHeight="1">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-    <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="7" spans="2:4" ht="18">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" t="s" s="3">
+    <row r="9" spans="2:4" ht="15">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" ht="15">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="5">
+      <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="4"/>
-      <c r="C11" t="s" s="4">
+    <row r="11" spans="2:4" ht="15">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s" s="5">
+      <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="4"/>
-      <c r="C12" t="s" s="4">
+    <row r="12" spans="2:4" ht="15">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s" s="5">
+      <c r="D12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1375,180 +2856,177 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'Hoja 1 - Compresion Table'!R2C1" tooltip="" display="Hoja 1 - Compresion Table"/>
-    <hyperlink ref="D11" location="'Hoja 1 - Compresion Time in Sec'!R2C1" tooltip="" display="Hoja 1 - Compresion Time in Sec"/>
-    <hyperlink ref="D12" location="'Hoja 1 - Decompresion Time in S'!R2C1" tooltip="" display="Hoja 1 - Decompresion Time in S"/>
+    <hyperlink ref="D10" location="'Hoja 1 - Compresion Table'!R2C1" display="Hoja 1 - Compresion Table" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D11" location="'Hoja 1 - Compresion Time in Sec'!R2C1" display="Hoja 1 - Compresion Time in Sec" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D12" location="'Hoja 1 - Decompresion Time in S'!R2C1" display="Hoja 1 - Decompresion Time in S" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G7"/>
+  <dimension ref="A1:IV7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="6" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="6" customWidth="1"/>
+    <col min="1" max="256" width="16.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:7" ht="33" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" ht="24" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7">
         <v>2</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <v>4</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>8</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>12</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>16</v>
       </c>
-      <c r="G2" t="s" s="10">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="24" customHeight="1">
-      <c r="A3" t="s" s="11">
+    <row r="3" spans="1:7" ht="24" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>52.74</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>46.8</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>47.09</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>47.19</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <v>47.33</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>47.08</v>
       </c>
     </row>
-    <row r="4" ht="24" customHeight="1">
-      <c r="A4" t="s" s="11">
+    <row r="4" spans="1:7" ht="24" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="12">
-        <v>77.43000000000001</v>
-      </c>
-      <c r="C4" s="12">
-        <v>73.29000000000001</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="B4" s="10">
+        <v>77.430000000000007</v>
+      </c>
+      <c r="C4" s="10">
+        <v>73.290000000000006</v>
+      </c>
+      <c r="D4" s="10">
         <v>73.08</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>73.13</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>73.22</v>
       </c>
-      <c r="G4" s="12">
-        <v>73.09999999999999</v>
-      </c>
-    </row>
-    <row r="5" ht="24" customHeight="1">
-      <c r="A5" t="s" s="11">
+      <c r="G4" s="10">
+        <v>73.099999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="24" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12">
-        <v>79.34999999999999</v>
-      </c>
-      <c r="C5" s="12">
-        <v>76.98999999999999</v>
-      </c>
-      <c r="D5" s="12">
-        <v>76.76000000000001</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="B5" s="10">
+        <v>79.349999999999994</v>
+      </c>
+      <c r="C5" s="10">
+        <v>76.989999999999995</v>
+      </c>
+      <c r="D5" s="10">
+        <v>76.760000000000005</v>
+      </c>
+      <c r="E5" s="10">
         <v>76.86</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>76.91</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>76.78</v>
       </c>
     </row>
-    <row r="6" ht="24" customHeight="1">
-      <c r="A6" t="s" s="11">
+    <row r="6" spans="1:7" ht="24" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="12">
-        <v>68.48999999999999</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="B6" s="10">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="C6" s="10">
         <v>67.69</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>66.59</v>
       </c>
-      <c r="E6" s="12">
-        <v>66.18000000000001</v>
-      </c>
-      <c r="F6" s="12">
-        <v>66.18000000000001</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="E6" s="10">
+        <v>66.180000000000007</v>
+      </c>
+      <c r="F6" s="10">
+        <v>66.180000000000007</v>
+      </c>
+      <c r="G6" s="10">
         <v>66.91</v>
       </c>
     </row>
-    <row r="7" ht="24" customHeight="1">
-      <c r="A7" t="s" s="11">
+    <row r="7" spans="1:7" ht="24" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>65.11</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>63.72</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>63.02</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>62.72</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <v>62.61</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <v>63.08</v>
       </c>
     </row>
@@ -1556,8 +3034,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1565,172 +3043,472 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE03898-8312-4638-8D27-9CEE2F54E5D8}">
+  <dimension ref="C3:S15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="3" spans="3:19">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19" ht="16.5">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10">
+        <v>52.74</v>
+      </c>
+      <c r="E4" s="10">
+        <f>N12</f>
+        <v>77.430000000000007</v>
+      </c>
+      <c r="F4" s="10">
+        <f>N13</f>
+        <v>79.349999999999994</v>
+      </c>
+      <c r="G4" s="10">
+        <f>N14</f>
+        <v>68.489999999999995</v>
+      </c>
+      <c r="H4" s="10">
+        <f>N15</f>
+        <v>65.11</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" ht="16.5">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>48.8</v>
+      </c>
+      <c r="E5">
+        <f>O12</f>
+        <v>73.290000000000006</v>
+      </c>
+      <c r="F5" s="10">
+        <f>O13</f>
+        <v>76.989999999999995</v>
+      </c>
+      <c r="G5">
+        <f>O14</f>
+        <v>67.69</v>
+      </c>
+      <c r="H5">
+        <f>O15</f>
+        <v>63.72</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" ht="16.5">
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>47.09</v>
+      </c>
+      <c r="E6">
+        <f>P12</f>
+        <v>73.08</v>
+      </c>
+      <c r="F6" s="10">
+        <f>P13</f>
+        <v>76.760000000000005</v>
+      </c>
+      <c r="G6">
+        <f>P14</f>
+        <v>66.59</v>
+      </c>
+      <c r="H6">
+        <f>P15</f>
+        <v>63.02</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" ht="16.5">
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>47.19</v>
+      </c>
+      <c r="E7">
+        <f>Q12</f>
+        <v>73.13</v>
+      </c>
+      <c r="F7" s="10">
+        <f>Q13</f>
+        <v>76.86</v>
+      </c>
+      <c r="G7">
+        <f>Q14</f>
+        <v>66.180000000000007</v>
+      </c>
+      <c r="H7">
+        <f>Q15</f>
+        <v>62.72</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" ht="16.5">
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>47.33</v>
+      </c>
+      <c r="E8">
+        <f>R12</f>
+        <v>73.22</v>
+      </c>
+      <c r="F8" s="10">
+        <f>R13</f>
+        <v>76.91</v>
+      </c>
+      <c r="G8">
+        <f>R14</f>
+        <v>66.180000000000007</v>
+      </c>
+      <c r="H8">
+        <f>R15</f>
+        <v>62.61</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" ht="16.5">
+      <c r="M10" s="6"/>
+      <c r="N10" s="7">
+        <v>2</v>
+      </c>
+      <c r="O10" s="7">
+        <v>4</v>
+      </c>
+      <c r="P10" s="7">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>12</v>
+      </c>
+      <c r="R10" s="7">
+        <v>16</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" ht="16.5">
+      <c r="M11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="10">
+        <v>52.74</v>
+      </c>
+      <c r="O11" s="10">
+        <v>46.8</v>
+      </c>
+      <c r="P11" s="10">
+        <v>47.09</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>47.19</v>
+      </c>
+      <c r="R11" s="10">
+        <v>47.33</v>
+      </c>
+      <c r="S11" s="10">
+        <v>47.08</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" ht="16.5">
+      <c r="M12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="10">
+        <v>77.430000000000007</v>
+      </c>
+      <c r="O12" s="10">
+        <v>73.290000000000006</v>
+      </c>
+      <c r="P12" s="10">
+        <v>73.08</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>73.13</v>
+      </c>
+      <c r="R12" s="10">
+        <v>73.22</v>
+      </c>
+      <c r="S12" s="10">
+        <v>73.099999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" ht="16.5">
+      <c r="M13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="10">
+        <v>79.349999999999994</v>
+      </c>
+      <c r="O13" s="10">
+        <v>76.989999999999995</v>
+      </c>
+      <c r="P13" s="10">
+        <v>76.760000000000005</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>76.86</v>
+      </c>
+      <c r="R13" s="10">
+        <v>76.91</v>
+      </c>
+      <c r="S13" s="10">
+        <v>76.78</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" ht="33">
+      <c r="M14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="10">
+        <v>68.489999999999995</v>
+      </c>
+      <c r="O14" s="10">
+        <v>67.69</v>
+      </c>
+      <c r="P14" s="10">
+        <v>66.59</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>66.180000000000007</v>
+      </c>
+      <c r="R14" s="10">
+        <v>66.180000000000007</v>
+      </c>
+      <c r="S14" s="10">
+        <v>66.91</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" ht="16.5">
+      <c r="M15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="10">
+        <v>65.11</v>
+      </c>
+      <c r="O15" s="10">
+        <v>63.72</v>
+      </c>
+      <c r="P15" s="10">
+        <v>63.02</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>62.72</v>
+      </c>
+      <c r="R15" s="10">
+        <v>62.61</v>
+      </c>
+      <c r="S15" s="10">
+        <v>63.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A60F90E-78F2-4C52-94AB-81D8BB880CA5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G7"/>
+  <dimension ref="A1:IV7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="13" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="13" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="13" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="13" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="13" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="13" customWidth="1"/>
+    <col min="1" max="256" width="16.28515625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:7" ht="33" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" ht="24" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7">
         <v>2</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <v>4</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>8</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>12</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>16</v>
       </c>
-      <c r="G2" t="s" s="10">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="24" customHeight="1">
-      <c r="A3" t="s" s="11">
+    <row r="3" spans="1:7" ht="24" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>207.33</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>183.86</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>186.12</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>188.4</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <v>194.05</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>192.43</v>
       </c>
     </row>
-    <row r="4" ht="24" customHeight="1">
-      <c r="A4" t="s" s="11">
+    <row r="4" spans="1:7" ht="24" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>226.06</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>222.14</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>217.08</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>190.58</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>211.76</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>218.45</v>
       </c>
     </row>
-    <row r="5" ht="24" customHeight="1">
-      <c r="A5" t="s" s="11">
+    <row r="5" spans="1:7" ht="24" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>212.83</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>212.31</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>212.1</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>212.23</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>213.5</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>222.64</v>
       </c>
     </row>
-    <row r="6" ht="24" customHeight="1">
-      <c r="A6" t="s" s="11">
+    <row r="6" spans="1:7" ht="24" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>215.4</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>216.46</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>215.04</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>215.01</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <v>215.63</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <v>226.56</v>
       </c>
     </row>
-    <row r="7" ht="24" customHeight="1">
-      <c r="A7" t="s" s="11">
+    <row r="7" spans="1:7" ht="24" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>215.64</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>216.19</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>214.99</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>215.75</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <v>217.69</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <v>217.84</v>
       </c>
     </row>
@@ -1738,181 +3516,177 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G7"/>
+  <dimension ref="A1:IV7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="14" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="14" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="14" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="14" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="14" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="14" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="14" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="14" customWidth="1"/>
+    <col min="1" max="256" width="16.28515625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:7" ht="33" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" ht="24" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7">
         <v>2</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <v>4</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>8</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>12</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>16</v>
       </c>
-      <c r="G2" t="s" s="10">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="24" customHeight="1">
-      <c r="A3" t="s" s="11">
+    <row r="3" spans="1:7" ht="24" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>27.71</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>26.23</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>26.54</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>27.1</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <v>27.21</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>27.27</v>
       </c>
     </row>
-    <row r="4" ht="24" customHeight="1">
-      <c r="A4" t="s" s="11">
+    <row r="4" spans="1:7" ht="24" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>29.64</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>31.46</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>30.42</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>27.01</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>29.2</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>28.88</v>
       </c>
     </row>
-    <row r="5" ht="24" customHeight="1">
-      <c r="A5" t="s" s="11">
+    <row r="5" spans="1:7" ht="24" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>27.09</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>27.89</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>28.23</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>28.15</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>28.41</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>29.88</v>
       </c>
     </row>
-    <row r="6" ht="24" customHeight="1">
-      <c r="A6" t="s" s="11">
+    <row r="6" spans="1:7" ht="24" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>28.1</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>29.48</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>29.4</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>29.8</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <v>29.83</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <v>31.8</v>
       </c>
     </row>
-    <row r="7" ht="24" customHeight="1">
-      <c r="A7" t="s" s="11">
+    <row r="7" spans="1:7" ht="24" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>29.15</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>30.75</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>30.93</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>30.82</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <v>31.1</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <v>31.26</v>
       </c>
     </row>
@@ -1920,8 +3694,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
